--- a/Descargas/R15_Juzgado De Letras Y Garantia De Mejillones_Familia_Ingresos Causas Por Materia_2018-Julio.xlsx
+++ b/Descargas/R15_Juzgado De Letras Y Garantia De Mejillones_Familia_Ingresos Causas Por Materia_2018-Julio.xlsx
@@ -231,17 +231,17 @@
         </is>
       </c>
       <c r="B3" s="65">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
       <c t="inlineStr" r="A4">
         <is>
-          <t xml:space="preserve">Alimentos, Aumento</t>
+          <t xml:space="preserve">Alimentos, Cesacion</t>
         </is>
       </c>
       <c r="B4" s="65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -267,7 +267,7 @@
     <row r="7">
       <c t="inlineStr" r="A7">
         <is>
-          <t xml:space="preserve">Autorizacion Salida Del Pais</t>
+          <t xml:space="preserve">Autorizaciones</t>
         </is>
       </c>
       <c r="B7" s="65">
@@ -277,47 +277,47 @@
     <row r="8">
       <c t="inlineStr" r="A8">
         <is>
-          <t xml:space="preserve">Autorizaciones</t>
+          <t xml:space="preserve">Convivencia, Notificacion Cese</t>
         </is>
       </c>
       <c r="B8" s="65">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c t="inlineStr" r="A9">
         <is>
-          <t xml:space="preserve">Compensacion Economica</t>
+          <t xml:space="preserve">Cuidado Personal Del Niño</t>
         </is>
       </c>
       <c r="B9" s="65">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
       <c t="inlineStr" r="A10">
         <is>
-          <t xml:space="preserve">Cuidado Personal Del Niño</t>
+          <t xml:space="preserve">Divorcio De Comun Acuerdo</t>
         </is>
       </c>
       <c r="B10" s="65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c t="inlineStr" r="A11">
         <is>
-          <t xml:space="preserve">Divorcio De Comun Acuerdo</t>
+          <t xml:space="preserve">Divorcio Por Cese De Convivencia</t>
         </is>
       </c>
       <c r="B11" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c t="inlineStr" r="A12">
         <is>
-          <t xml:space="preserve">Divorcio Por Cese De Convivencia</t>
+          <t xml:space="preserve">Infracción A La Ley Penal</t>
         </is>
       </c>
       <c r="B12" s="65">
@@ -327,71 +327,61 @@
     <row r="13">
       <c t="inlineStr" r="A13">
         <is>
-          <t xml:space="preserve">Divorcio Por Culpa</t>
+          <t xml:space="preserve">Otros Asuntos Voluntarios</t>
         </is>
       </c>
       <c r="B13" s="65">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
       <c t="inlineStr" r="A14">
         <is>
-          <t xml:space="preserve">Guardador Menores De Edad, Nombramiento</t>
+          <t xml:space="preserve">Otros Procedimientos Menores</t>
         </is>
       </c>
       <c r="B14" s="65">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
       <c t="inlineStr" r="A15">
         <is>
-          <t xml:space="preserve">Otros Asuntos Voluntarios</t>
+          <t xml:space="preserve">Relacion Directa Y Regular Con El Niño</t>
         </is>
       </c>
       <c r="B15" s="65">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
       <c t="inlineStr" r="A16">
         <is>
-          <t xml:space="preserve">Otros Procedimientos Menores</t>
+          <t xml:space="preserve">Relacion Directa Y Regular Modificacion</t>
         </is>
       </c>
       <c r="B16" s="65">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c t="inlineStr" r="A17">
         <is>
-          <t xml:space="preserve">Relacion Directa Y Regular Con El Niño</t>
+          <t xml:space="preserve">Violencia Intrafamiliar</t>
         </is>
       </c>
       <c r="B17" s="65">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
       <c t="inlineStr" r="A18">
         <is>
-          <t xml:space="preserve">Violencia Intrafamiliar</t>
+          <t xml:space="preserve">Vulneración De Derechos</t>
         </is>
       </c>
       <c r="B18" s="65">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19">
-      <c t="inlineStr" r="A19">
-        <is>
-          <t xml:space="preserve">Vulneración De Derechos</t>
-        </is>
-      </c>
-      <c r="B19" s="65">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
